--- a/branches/Defense/Steps.xlsx
+++ b/branches/Defense/Steps.xlsx
@@ -422,9 +422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -526,7 +524,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>8</v>
